--- a/PaperWriting/Data_organization/Paper_Figures_AND_tables/data_backup/tables_for_paper.xlsx
+++ b/PaperWriting/Data_organization/Paper_Figures_AND_tables/data_backup/tables_for_paper.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/PaperWriting/Paper_Figures_AND_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/PaperWriting/Data_organization/Paper_Figures_AND_tables/data_backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="miRNA and coordination" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">miRNA </t>
   </si>
@@ -53,33 +53,9 @@
     <t>miRNA Number</t>
   </si>
   <si>
-    <t>Number of SNPs</t>
-  </si>
-  <si>
-    <t>Fragment type</t>
-  </si>
-  <si>
-    <t>Number of Fragments</t>
-  </si>
-  <si>
     <t>pre-miRNAs</t>
   </si>
   <si>
-    <t>mature miRNAs</t>
-  </si>
-  <si>
-    <t>conserved miRNAs</t>
-  </si>
-  <si>
-    <t>target gene (miRNA binding site)</t>
-  </si>
-  <si>
-    <t>flanking region</t>
-  </si>
-  <si>
-    <t>(miRNA binding site and its upstream and downstream ~100bp flanking regions)</t>
-  </si>
-  <si>
     <t>Length of Combined pattern</t>
   </si>
   <si>
@@ -102,13 +78,41 @@
   </si>
   <si>
     <t>Number of Mutation Site</t>
+  </si>
+  <si>
+    <t>Fragment type
+基因组片段类型</t>
+  </si>
+  <si>
+    <t>Number
+总数</t>
+  </si>
+  <si>
+    <t>Number of SNPs
+SNP的数量</t>
+  </si>
+  <si>
+    <t>mature miRNAs
+成熟miRNA</t>
+  </si>
+  <si>
+    <t>conserved miRNAs
+保守miRNA</t>
+  </si>
+  <si>
+    <t>target gene (miRNA binding site)
+靶基因上miRNA结合位点</t>
+  </si>
+  <si>
+    <t>flanking region
+结合位点侧翼 (~100bp上下游)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +147,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -306,11 +326,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,47 +362,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,9 +751,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -744,97 +798,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="20">
         <v>585</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="20">
         <v>7193</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17">
         <v>793</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="17">
         <v>1270</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17">
+        <v>220</v>
+      </c>
+      <c r="C4" s="17">
+        <v>188</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>220</v>
-      </c>
-      <c r="C5" s="3">
-        <v>188</v>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17">
+        <v>823</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1169</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21">
         <v>823</v>
       </c>
-      <c r="C6" s="3">
-        <v>1169</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>823</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="C6" s="21">
         <v>9217</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,10 +900,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1008,57 +1055,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>23</v>
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
         <v>2059</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>2136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9">
         <v>3979</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>4431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
         <v>13840</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>19845</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12">
         <v>179</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>181</v>
       </c>
     </row>
